--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="A1:XFD31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
